--- a/citas/update/PASO ANCHO (EDUCACION VIAL)_citas_disponibles.xlsx
+++ b/citas/update/PASO ANCHO (EDUCACION VIAL)_citas_disponibles.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jueves 02/05/2024</t>
+          <t>Jueves 16/05/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Viernes 03/05/2024</t>
+          <t>Viernes 17/05/2024</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lunes 06/05/2024</t>
+          <t>Lunes 20/05/2024</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Martes 07/05/2024</t>
+          <t>Martes 21/05/2024</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miércoles 08/05/2024</t>
+          <t>Miércoles 22/05/2024</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jueves 09/05/2024</t>
+          <t>Jueves 23/05/2024</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Viernes 10/05/2024</t>
+          <t>Lunes 27/05/2024</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lunes 13/05/2024</t>
+          <t>Martes 28/05/2024</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Martes 14/05/2024</t>
+          <t>Miércoles 29/05/2024</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Miércoles 15/05/2024</t>
+          <t>Jueves 30/05/2024</t>
         </is>
       </c>
     </row>

--- a/citas/update/PASO ANCHO (EDUCACION VIAL)_citas_disponibles.xlsx
+++ b/citas/update/PASO ANCHO (EDUCACION VIAL)_citas_disponibles.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jueves 16/05/2024</t>
+          <t>Martes 21/05/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Viernes 17/05/2024</t>
+          <t>Miércoles 22/05/2024</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lunes 20/05/2024</t>
+          <t>Jueves 23/05/2024</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Martes 21/05/2024</t>
+          <t>Lunes 27/05/2024</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miércoles 22/05/2024</t>
+          <t>Martes 28/05/2024</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jueves 23/05/2024</t>
+          <t>Miércoles 29/05/2024</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lunes 27/05/2024</t>
+          <t>Jueves 30/05/2024</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Martes 28/05/2024</t>
+          <t>Viernes 31/05/2024</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Miércoles 29/05/2024</t>
+          <t>Lunes 03/06/2024</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jueves 30/05/2024</t>
+          <t>Martes 04/06/2024</t>
         </is>
       </c>
     </row>

--- a/citas/update/PASO ANCHO (EDUCACION VIAL)_citas_disponibles.xlsx
+++ b/citas/update/PASO ANCHO (EDUCACION VIAL)_citas_disponibles.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Martes 21/05/2024</t>
+          <t>Lunes 27/05/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Miércoles 22/05/2024</t>
+          <t>Martes 28/05/2024</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jueves 23/05/2024</t>
+          <t>Miércoles 29/05/2024</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lunes 27/05/2024</t>
+          <t>Jueves 30/05/2024</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Martes 28/05/2024</t>
+          <t>Lunes 03/06/2024</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Miércoles 29/05/2024</t>
+          <t>Martes 04/06/2024</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jueves 30/05/2024</t>
+          <t>Miércoles 05/06/2024</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Viernes 31/05/2024</t>
+          <t>Jueves 06/06/2024</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lunes 03/06/2024</t>
+          <t>Viernes 07/06/2024</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Martes 04/06/2024</t>
+          <t>Lunes 10/06/2024</t>
         </is>
       </c>
     </row>
